--- a/excel_analysis/Titanic_Excel_Analysis&Dashboard.xlsx
+++ b/excel_analysis/Titanic_Excel_Analysis&Dashboard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6851274-D77B-41D0-A969-41478D13F70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{155FB3F1-88B7-4B34-935F-8D3C763E397B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,8 +15,23 @@
     <sheet name="By_Fare" sheetId="5" r:id="rId5"/>
     <sheet name="Dashboard" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="Slicer_Embarked">#N/A</definedName>
+    <definedName name="Slicer_Pclass">#N/A</definedName>
+    <definedName name="Slicer_Sex">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -166,7 +181,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -214,20 +229,20 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.00000"/>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.00000"/>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
     </dxf>
     <dxf>
       <fill>
@@ -1088,6 +1103,239 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" Requires="a15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Sex">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2C5ECE8-9BEE-5F2C-E613-67CA8D061F4C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Sex"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9886950" y="200025"/>
+              <a:ext cx="1828800" cy="962025"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:endParaRPr sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" Requires="a15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Pclass">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50CD418C-F494-EE7E-0869-119F79A69E17}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E2C5ECE8-9BEE-5F2C-E613-67CA8D061F4C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Pclass"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9886950" y="1333500"/>
+              <a:ext cx="1828800" cy="1162050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:endParaRPr sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" Requires="a15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Embarked">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE2B876-2519-A7DD-B3AA-5CEB28E6DA54}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{50CD418C-F494-EE7E-0869-119F79A69E17}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Embarked"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9877425" y="2657475"/>
+              <a:ext cx="1828800" cy="1238250"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:endParaRPr sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1203,7 +1451,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1320,7 +1568,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1437,7 +1685,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1552,6 +1800,44 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Sex" xr10:uid="{B9D3E206-3E96-4017-BCAB-A7A21C506BB7}" sourceName="Sex">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="2"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Pclass" xr10:uid="{9D2A43CB-4038-4B84-9F98-1909BCB99EDF}" sourceName="Pclass">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="6"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Embarked" xr10:uid="{ACEC579D-F700-4393-8A26-7FCE156C7932}" sourceName="Embarked">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="12"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Sex" xr10:uid="{1A5EF1D0-AE28-4DFB-98F6-96650D5F0702}" cache="Slicer_Sex" caption="Sex" rowHeight="228600"/>
+  <slicer name="Pclass" xr10:uid="{A931660B-B7B2-48C2-9AB6-46F2A2A8C33E}" cache="Slicer_Pclass" caption="Pclass" rowHeight="228600"/>
+  <slicer name="Embarked" xr10:uid="{E4965AD1-65F9-4815-B350-FEB4D5F7D907}" cache="Slicer_Embarked" caption="Embarked" rowHeight="228600"/>
+</slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1864,7 +2150,7 @@
   <dimension ref="A1:M892"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38451,10 +38737,30 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -38463,7 +38769,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38498,6 +38804,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -38508,7 +38826,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38552,6 +38870,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -38562,7 +38892,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38625,6 +38955,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -38635,7 +38977,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38689,6 +39031,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
